--- a/PublicTools/econfigs/equiplevelup.xlsx
+++ b/PublicTools/econfigs/equiplevelup.xlsx
@@ -31,10 +31,10 @@
     <t>EquipmentLevelUpData.json</t>
   </si>
   <si>
-    <t>装备升级表</t>
+    <t>Quality</t>
   </si>
   <si>
-    <t>Quality</t>
+    <t>装备升级表</t>
   </si>
   <si>
     <t>Level</t>
@@ -372,7 +372,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -28397,8 +28397,8 @@
     <col customWidth="1" min="3" max="4" width="8.75"/>
     <col customWidth="1" min="5" max="5" width="12.0"/>
     <col customWidth="1" min="6" max="6" width="8.75"/>
-    <col customWidth="1" min="7" max="7" width="9.63"/>
-    <col customWidth="1" min="8" max="26" width="7.75"/>
+    <col customWidth="1" min="7" max="8" width="9.63"/>
+    <col customWidth="1" min="9" max="26" width="7.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -28409,7 +28409,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
@@ -28970,7 +28970,7 @@
       <c r="F14" s="3">
         <v>6000.0</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <v>6500.0</v>
       </c>
       <c r="H14" s="3">
